--- a/excel/signInDataTable_org.zgl.logic.hall.siginin.data.SignInDataTable.xlsx
+++ b/excel/signInDataTable_org.zgl.logic.hall.siginin.data.SignInDataTable.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameGroup\work\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BD456F26-3E41-477B-9EF2-28C6F49F74D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>成长礼包对应表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,15 +37,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钻石</t>
+    <t>换牌卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到礼包对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -197,7 +191,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -374,135 +368,128 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="C7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>25000</v>
       </c>
       <c r="C8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="C9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="C10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>700</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
